--- a/Project_setup (version 1)_.xlsx
+++ b/Project_setup (version 1)_.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Lectures\Research_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Lectures\Research_Project\robust-med-vlm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0253686D-9BFD-40D5-B88C-659DEF32651A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F63A929-BD82-46B1-B4C3-49B62808D8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="850" windowWidth="19140" windowHeight="11150" xr2:uid="{F0C56A59-13B5-4394-AD09-2E6E60F0A34D}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8180" activeTab="1" xr2:uid="{F0C56A59-13B5-4394-AD09-2E6E60F0A34D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dataset" sheetId="2" r:id="rId1"/>
-    <sheet name="Models" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Prompt" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId2"/>
+    <sheet name="Models" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Prompt" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$1:$M$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Models!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Models!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
   <si>
     <t>Dataset</t>
   </si>
@@ -52,9 +54,6 @@
   </si>
   <si>
     <t>Size</t>
-  </si>
-  <si>
-    <t>Content</t>
   </si>
   <si>
     <t>Reference</t>
@@ -415,10 +414,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Paper_URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dataset_URL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -459,10 +454,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>The ChestMNIST is based on the NIH-ChestXray14 dataset, a dataset comprising 112,120 frontal-view X-Ray images of 30,805 unique patients with the text-mined 14 disease labels, which could be formulized as a multi-label binary-class classification task. We use the official data split, and resize the source images of 1×1024×1024 into 1×28×28.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">            "0": "actinic keratoses and intraepithelial carcinoma",
             "1": "basal cell carcinoma",
             "2": "benign keratosis-like lesions",
@@ -517,17 +508,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MEDMNISTC 는 Test 데이터 사용
-400 * Severity(5) = 2000장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">각 Corrupted 데이터는 Test 데이터(559) 사용
-Blur, Noise, MRI artifact(Motion)
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>train : 3934
 val : 1120
 -&gt; BT-MRI dataset
@@ -568,15 +548,6 @@
   </si>
   <si>
     <t>Identifying Medical Diagnoses and Treatable Diseases by Image-Based Deep Learning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG_Source_paper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OCTMNIST
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -680,20 +651,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PG_Dataset</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG_Dataset_Source</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Diagnostic assessment of deep learning algorithms for diabetic retinopathy screening</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Identifying Medical Diagnoses and Treatable Diseases by Image-Based Deep Learning
-Large Dataset of Labeled Optical Coherence Tomography (OCT) and Chest X-Ray Images</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -701,42 +659,6 @@
 DeepDRiD: Diabetic Retinopathy—Grading and Image Quality Estimation Challenge
 https://zenodo.org/records/6452623
 https://github.com/deepdrdoc/DeepDRiD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Kaplan. Brain cancer detection - MRI images classification dataset and pre
-trained model by kaplan. 2021, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-https://universe.roboflow.com/kaplan/brain-cancer-detection-mri-images13</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>figshare
-SARTAJ dataset
-Br35H</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -801,10 +723,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Identifying Medical Diagnoses and Treatable Diseases by Image-Based Deep Learning1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/Traslational-Visual-Health-Laboratory/OCT-AND-EYE-FUNDUS-DATASET1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -816,15 +734,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>폐렴: Identifying Medical Diagnoses and Treatable Diseases by Image-Based Deep Learning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Xray</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.kaggle.com/datasets/amanullahasraf/covid19-pneumonia-normal-chest-xray-pa-dataset?select=normal</t>
+    <t>109309</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The ChestMNIST is based on the NIH-ChestXray14 dataset, a dataset comprising 112,120 frontal-view X-Ray images of 30,805 unique patients with the text-mined 14 disease labels, which could be formulized as a multi-label binary-class classification task. We use the official data split, and resize the source images of 1×1024×1024 into 1×28×28.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> no normal data</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운데이터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xray</t>
+  </si>
+  <si>
+    <t>OCTMNIST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hospital-scale chest x-ray database and benchmarks on weakly-supervised classification and localization of 
+common thorax diseases</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hospital-Scale Chest X-Ray Database and Benchmarks on Weakly-Supervised Classification and Localization of
+Common Thorax Diseases</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG는 Trainingdata 만 사용한 것으로 추정됨. 매핑안되는 pair : 42쌍 (OCT-Normal)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>5.jpeg</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>C:\Users\hanna\Lectures\Research_Project\Codes\Dataset\vlm_prompt_dataset\pg_all\Xray\ValData\COVID-19\5.jpeg</t>
+  </si>
+  <si>
+    <t>8.jpeg</t>
+  </si>
+  <si>
+    <t>C:\Users\hanna\Lectures\Research_Project\Codes\Dataset\vlm_prompt_dataset\pg_all\Xray\ValData\COVID-19\8.jpeg</t>
+  </si>
+  <si>
+    <t>xray 아래데이터 두개만 학습시 val에서 빼서 씀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +833,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,15 +900,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,16 +942,15 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,25 +995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,7 +1044,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,9 +1108,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1138,110 +1120,158 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1577,435 +1607,577 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7917F0F5-761F-4A78-8541-623FBF27B565}">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6A8CFF-C839-4C22-BA63-CE3E49104718}">
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="49.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.08203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.08203125" style="32" customWidth="1"/>
-    <col min="6" max="6" width="54.6640625" style="32" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="51.9140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="34.83203125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="28.58203125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="9.9140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" style="32" customWidth="1"/>
-    <col min="14" max="16384" width="8.6640625" style="32"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="98.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" s="64" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="59"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.45">
+      <c r="A9" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="18">
+        <v>4</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="21">
+        <v>5</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="18">
+        <v>6</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="18">
+        <v>7</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="18">
+        <v>8</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="26" t="s">
+      <c r="D15" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="102" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="18">
+        <v>9</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="18">
+        <v>10</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19">
+        <v>250</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="18">
+        <v>11</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19">
+        <v>3200</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="29" customFormat="1" ht="119" x14ac:dyDescent="0.45">
-      <c r="A2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="36" t="s">
+      <c r="C20" s="18">
+        <v>12</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19">
+        <v>1345</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" s="69" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="65"/>
+      <c r="B21" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+    </row>
+    <row r="22" spans="1:9" s="69" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="18" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="54" t="s">
+      <c r="F22" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-    </row>
-    <row r="5" spans="1:13" s="29" customFormat="1" ht="102" x14ac:dyDescent="0.45">
-      <c r="A5" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="47" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="49"/>
-      <c r="F6" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
-      <c r="K6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="231" x14ac:dyDescent="0.45">
-      <c r="A7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="18">
-        <v>3</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="18">
-        <v>3</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="18">
-        <v>4</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:13" s="22" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="22">
-        <v>5</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="18">
-        <v>6</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="18">
-        <v>7</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="18">
-        <v>8</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" s="36" customFormat="1" ht="102" x14ac:dyDescent="0.45">
-      <c r="A14" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="18">
-        <v>9</v>
-      </c>
-      <c r="G15" s="19">
-        <v>2000</v>
-      </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="18">
-        <v>10</v>
-      </c>
-      <c r="G16" s="19">
-        <v>250</v>
-      </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="18">
-        <v>11</v>
-      </c>
-      <c r="G17" s="19">
-        <v>3200</v>
-      </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="18">
-        <v>12</v>
-      </c>
-      <c r="G18" s="19">
-        <v>1345</v>
-      </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" s="47" customFormat="1" ht="153" x14ac:dyDescent="0.45">
-      <c r="A19" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="48" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M19" xr:uid="{7917F0F5-761F-4A78-8541-623FBF27B565}"/>
+  <autoFilter ref="A1:N1" xr:uid="{2C6A8CFF-C839-4C22-BA63-CE3E49104718}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M19" r:id="rId1" xr:uid="{EAE49D78-5F6D-49F8-A6CF-03229826DC8D}"/>
-    <hyperlink ref="B19" r:id="rId2" xr:uid="{39D78E32-D9E3-4BCD-AC84-C6B685F44210}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{5C3ABC8F-2C58-4525-A3B0-8D009250649C}"/>
-    <hyperlink ref="B2" r:id="rId4" display="https://www.kaggle.com/datasets/paultimothymooney/kermany2018/data" xr:uid="{5710FB5F-A216-4E78-89EA-CAD5869416E4}"/>
-    <hyperlink ref="B14" r:id="rId5" xr:uid="{B3F0B696-6EA3-49EF-9AD5-81DBFCFE1274}"/>
-    <hyperlink ref="K2" r:id="rId6" xr:uid="{DA052396-92D2-43D4-8971-B7F6B845D9EF}"/>
-    <hyperlink ref="K5" r:id="rId7" xr:uid="{9D0FBEC0-F243-4EB5-B8D9-DC24138AA1BC}"/>
-    <hyperlink ref="K14" r:id="rId8" xr:uid="{D384A92F-F43D-4A0D-A42D-1CEE1BCEDBB5}"/>
-    <hyperlink ref="C2" r:id="rId9" display="https://data.mendeley.com/datasets/rscbjbr9sj/2?__hstc=25856994.1bed2f9c7a182d615752ee686af0319f.1765638012477.1765638012477.1765638012477.1&amp;__hssc=25856994.2.1765638012477&amp;__hsfp=3807285191_x000a_" xr:uid="{7B10A23C-7C10-4D70-ADB3-C3697B03205D}"/>
-    <hyperlink ref="F19" r:id="rId10" display="https://universe.roboflow.com/kaplan/brain-cancer-detection-mri-images13" xr:uid="{0A5C45FF-A3BE-4845-B64B-482099B63520}"/>
-    <hyperlink ref="C5" r:id="rId11" display="https://github.com/ieee8023/covid-chestxray-dataset_x000a_" xr:uid="{2AB5B312-7C1A-46D8-98E8-7A48DFD82364}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{BC085C9C-2DCA-4678-A3FC-30B0D173A649}"/>
-    <hyperlink ref="F6" r:id="rId13" xr:uid="{1578BCF0-2B1D-4FF2-B560-6E79054A6482}"/>
+    <hyperlink ref="I22" r:id="rId1" xr:uid="{4DA3A77F-27C7-45A6-8B7D-0BF25AEC8527}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{3558B271-CBF1-4370-B638-001CF1940AB4}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{4FADA62D-276A-48D3-9DEF-1521B88FE2C1}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{793F86C3-9D3A-4C58-96D5-8FB9C5BB3403}"/>
+    <hyperlink ref="H16" r:id="rId5" xr:uid="{0008054F-60BA-4782-92A9-361069BFF651}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{C03FC0E6-3952-4122-A023-243D666842DC}"/>
+    <hyperlink ref="C22" r:id="rId7" xr:uid="{A889684F-880D-4B04-A1C7-33DCC4E859E3}"/>
+    <hyperlink ref="D2" r:id="rId8" display="https://data.mendeley.com/datasets/rscbjbr9sj/2?__hstc=25856994.1bed2f9c7a182d615752ee686af0319f.1765638012477.1765638012477.1765638012477.1&amp;__hssc=25856994.2.1765638012477&amp;__hsfp=3807285191_x000a_" xr:uid="{CE1D515F-C7CF-4EA7-927E-2CEABF75CC49}"/>
+    <hyperlink ref="I2" r:id="rId9" display="https://www.kaggle.com/datasets/paultimothymooney/kermany2018/data" xr:uid="{540DC7D1-199D-4109-BBA0-51D005FE049D}"/>
+    <hyperlink ref="D6" r:id="rId10" display="https://github.com/ieee8023/covid-chestxray-dataset_x000a_" xr:uid="{BFC929DB-260D-48EB-8BA4-E4B18498D837}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{1BA0BD4A-429E-4613-A110-0539546AA5CC}"/>
+    <hyperlink ref="C21" r:id="rId12" xr:uid="{49C7D482-540F-4EE4-B3D7-51857E3FFB58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAF78ED-867A-4F09-8D3C-D520A991A996}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>8758</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>8759</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1995D1-D849-4C0E-89B7-A1EAA1BAB4A9}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -2030,416 +2202,416 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4">
         <v>2025.9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>2025.11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4">
         <v>2025.11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4">
         <v>2025.11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4">
         <v>2025.8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4">
         <v>2025.8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="I10" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4">
         <v>2024.12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="13" customFormat="1" ht="17" hidden="1" x14ac:dyDescent="0.45">
       <c r="B12" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="14">
         <v>2025.5</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="9">
         <v>2025.7</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4">
         <v>2025.5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4">
         <v>2025.9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4">
         <v>2025.9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F0633F-B8DD-4EFD-817B-AF8D9073858A}">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -2501,65 +2673,65 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" s="46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" s="46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" s="46" t="s">
-        <v>40</v>
+      <c r="A10" s="38" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="46"/>
+      <c r="A11" s="38"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" s="46" t="s">
-        <v>108</v>
+      <c r="A13" s="38" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F48372-E440-4246-B68F-5FA78C5372AE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -2583,59 +2755,59 @@
     <col min="3" max="3" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:3" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="45">
+      <c r="B1" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="209.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>135</v>
+      <c r="A2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="221" x14ac:dyDescent="0.45">
-      <c r="A3" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>137</v>
+      <c r="A3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="187" x14ac:dyDescent="0.45">
-      <c r="A4" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>136</v>
+      <c r="A4" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="187" x14ac:dyDescent="0.45">
-      <c r="A5" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>134</v>
+      <c r="A5" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Project_setup (version 1)_.xlsx
+++ b/Project_setup (version 1)_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Lectures\Research_Project\robust-med-vlm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F63A929-BD82-46B1-B4C3-49B62808D8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DBAB82-E681-4832-9EF8-5E4458E4908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8180" activeTab="1" xr2:uid="{F0C56A59-13B5-4394-AD09-2E6E60F0A34D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F0C56A59-13B5-4394-AD09-2E6E60F0A34D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="149">
   <si>
     <t>Dataset</t>
   </si>
@@ -826,6 +825,14 @@
   </si>
   <si>
     <t>xray 아래데이터 두개만 학습시 val에서 빼서 씀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/AICONSlab/roodmri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>artefact mri</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +957,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1011,8 +1018,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1035,6 +1048,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1044,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1272,6 +1296,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1610,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6A8CFF-C839-4C22-BA63-CE3E49104718}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2070,6 +2103,14 @@
       <c r="H22" s="70"/>
       <c r="I22" s="71" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="76" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -2093,6 +2134,7 @@
     <hyperlink ref="D6" r:id="rId10" display="https://github.com/ieee8023/covid-chestxray-dataset_x000a_" xr:uid="{BFC929DB-260D-48EB-8BA4-E4B18498D837}"/>
     <hyperlink ref="D15" r:id="rId11" xr:uid="{1BA0BD4A-429E-4613-A110-0539546AA5CC}"/>
     <hyperlink ref="C21" r:id="rId12" xr:uid="{49C7D482-540F-4EE4-B3D7-51857E3FFB58}"/>
+    <hyperlink ref="C23" r:id="rId13" xr:uid="{F44A5888-1DB9-45AC-958C-764E1DAA3965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2102,7 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAAF78ED-867A-4F09-8D3C-D520A991A996}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
